--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="13875" windowHeight="4200"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="13875" windowHeight="4005"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Testloginlogout" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -28,10 +28,10 @@
     <t>admin</t>
   </si>
   <si>
-    <t>manager</t>
+    <t>user</t>
   </si>
   <si>
-    <t>user</t>
+    <t>admin123</t>
   </si>
 </sst>
 </file>
@@ -366,7 +366,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -384,15 +384,15 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
